--- a/NformTester/NformTester/keywordscripts/TST2768_TwoCheckboxesInTrendDataSelection.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2768_TwoCheckboxesInTrendDataSelection.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7573" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7575" uniqueCount="854">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3618,9 +3618,6 @@
     <t>"SNMP"</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>;Clear operation.</t>
   </si>
   <si>
@@ -3646,29 +3643,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Liebert GXT UPS/WebCard"</t>
-  </si>
-  <si>
-    <t>10.146.88.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS_other"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Checked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3815,8 +3796,18 @@
     <t>Expand</t>
   </si>
   <si>
-    <t>Equal</t>
+    <t>$SNMPdevice_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_1$</t>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_1_NAME$</t>
   </si>
 </sst>
 </file>
@@ -4771,9 +4762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4866,7 +4859,7 @@
         <v>766</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4907,7 +4900,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4938,7 +4931,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4963,7 +4956,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4982,7 +4975,7 @@
         <v>772</v>
       </c>
       <c r="B7" s="4">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -5001,16 +4994,16 @@
         <v>793</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>804</v>
+        <v>850</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>796</v>
+        <v>852</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>794</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>795</v>
@@ -5023,7 +5016,7 @@
         <v>763</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -5042,16 +5035,16 @@
         <v>793</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>806</v>
+        <v>851</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>807</v>
+        <v>853</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>794</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>795</v>
@@ -5070,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5135,7 +5128,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>796</v>
+        <v>852</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -5159,7 +5152,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>2</v>
@@ -5188,7 +5181,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>2</v>
@@ -5211,7 +5204,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -5267,10 +5260,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -5294,7 +5287,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -5317,10 +5310,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
@@ -5346,7 +5339,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
@@ -5369,10 +5362,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F20" s="5">
         <v>2</v>
@@ -5396,7 +5389,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -5415,10 +5408,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -5438,7 +5431,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="5"/>
@@ -5457,10 +5450,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -5475,48 +5468,48 @@
       <c r="N24" s="7"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="15">
+    <row r="25" spans="1:15">
       <c r="C25" s="5">
         <v>24</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="D25" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="18"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="7"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="15">
       <c r="C26" s="5">
         <v>25</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="D26" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="16"/>
+      <c r="N26" s="7"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15">
@@ -5530,10 +5523,10 @@
         <v>19</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -5551,16 +5544,16 @@
       <c r="D28" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>394</v>
+      <c r="E28" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>398</v>
+        <v>83</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="H28" s="5"/>
+        <v>804</v>
+      </c>
+      <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -5580,20 +5573,14 @@
         <v>394</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="J29" s="5" t="b">
-        <v>1</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -5611,10 +5598,10 @@
         <v>394</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>808</v>
+        <v>2</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="5"/>
@@ -5625,7 +5612,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="16.5" customHeight="1">
+    <row r="31" spans="1:15">
       <c r="C31" s="5">
         <v>30</v>
       </c>
@@ -5636,41 +5623,43 @@
         <v>394</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>17</v>
+        <v>441</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="11"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="16"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="16.5" customHeight="1">
       <c r="C32" s="5">
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+        <v>786</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="H32" s="11"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="7"/>
+      <c r="N32" s="16"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="3:15">
@@ -5678,19 +5667,17 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+        <v>806</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5703,13 +5690,13 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>2</v>
@@ -5728,45 +5715,45 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>800</v>
+        <v>19</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>576</v>
+        <v>78</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="I35" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="16"/>
+      <c r="N35" s="7"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="3:15" ht="14.25">
+    <row r="36" spans="3:15">
       <c r="C36" s="5">
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>800</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>183</v>
+        <v>576</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>797</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5775,23 +5762,23 @@
       <c r="N36" s="16"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="3:15">
+    <row r="37" spans="3:15" ht="14.25">
       <c r="C37" s="5">
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>583</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -5805,29 +5792,54 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>583</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="7"/>
+      <c r="N38" s="16"/>
       <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="3:15">
+      <c r="C39" s="5">
+        <v>38</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N38">
+  <conditionalFormatting sqref="N2:N39">
     <cfRule type="cellIs" dxfId="1" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5836,16 +5848,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G36:G38 G2:G34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37:G39 G2:G35">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D33 D24 D22 D18 D3:D4 D7:D8 D16 D20 D26:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D34 D27:D29 D22 D18 D3:D4 D7:D8 D16 D20 D24">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26:E38 E2:E24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27:E39 E2:E25">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -6520,7 +6532,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="L4" t="s">
         <v>99</v>
@@ -7402,7 +7414,7 @@
     </row>
     <row r="10" spans="1:83">
       <c r="A10" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -9385,7 +9397,7 @@
         <v>754</v>
       </c>
       <c r="E82" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="AO82" t="s">
         <v>330</v>
@@ -9393,10 +9405,10 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E83" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="AO83" t="s">
         <v>358</v>
@@ -9404,10 +9416,10 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E84" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="AO84" t="s">
         <v>357</v>
@@ -9471,7 +9483,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="E92" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="AO92" t="s">
         <v>477</v>
@@ -9479,7 +9491,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="E93" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="AO93" t="s">
         <v>478</v>
@@ -9487,7 +9499,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="E94" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="AO94" t="s">
         <v>479</v>
@@ -9495,7 +9507,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="E95" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="AO95" t="s">
         <v>480</v>
@@ -9503,7 +9515,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="E96" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="AO96" t="s">
         <v>481</v>
@@ -9511,7 +9523,7 @@
     </row>
     <row r="97" spans="5:41">
       <c r="E97" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="AO97" t="s">
         <v>482</v>
@@ -9519,7 +9531,7 @@
     </row>
     <row r="98" spans="5:41">
       <c r="E98" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="AO98" t="s">
         <v>483</v>
@@ -9527,7 +9539,7 @@
     </row>
     <row r="99" spans="5:41">
       <c r="E99" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="AO99" t="s">
         <v>484</v>
@@ -9535,7 +9547,7 @@
     </row>
     <row r="100" spans="5:41">
       <c r="E100" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="AO100" t="s">
         <v>485</v>
@@ -9543,7 +9555,7 @@
     </row>
     <row r="101" spans="5:41">
       <c r="E101" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="AO101" t="s">
         <v>486</v>
@@ -9551,7 +9563,7 @@
     </row>
     <row r="102" spans="5:41">
       <c r="E102" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="AO102" t="s">
         <v>380</v>
@@ -9559,7 +9571,7 @@
     </row>
     <row r="103" spans="5:41">
       <c r="E103" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="AO103" t="s">
         <v>487</v>
@@ -9567,7 +9579,7 @@
     </row>
     <row r="104" spans="5:41">
       <c r="E104" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="AO104" t="s">
         <v>488</v>
@@ -9575,7 +9587,7 @@
     </row>
     <row r="105" spans="5:41">
       <c r="E105" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AO105" t="s">
         <v>489</v>
@@ -9583,7 +9595,7 @@
     </row>
     <row r="106" spans="5:41">
       <c r="E106" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="AO106" t="s">
         <v>490</v>
@@ -9591,7 +9603,7 @@
     </row>
     <row r="107" spans="5:41">
       <c r="E107" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="AO107" t="s">
         <v>491</v>
@@ -9599,7 +9611,7 @@
     </row>
     <row r="108" spans="5:41">
       <c r="E108" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="AO108" t="s">
         <v>492</v>
@@ -9607,7 +9619,7 @@
     </row>
     <row r="109" spans="5:41">
       <c r="E109" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="AO109" t="s">
         <v>493</v>
@@ -9615,7 +9627,7 @@
     </row>
     <row r="110" spans="5:41">
       <c r="E110" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="AO110" t="s">
         <v>494</v>
@@ -9623,7 +9635,7 @@
     </row>
     <row r="111" spans="5:41">
       <c r="E111" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="AO111" t="s">
         <v>495</v>
@@ -9631,7 +9643,7 @@
     </row>
     <row r="112" spans="5:41">
       <c r="E112" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="AO112" t="s">
         <v>496</v>
@@ -9639,7 +9651,7 @@
     </row>
     <row r="113" spans="5:41">
       <c r="E113" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="AO113" t="s">
         <v>497</v>
@@ -9647,7 +9659,7 @@
     </row>
     <row r="114" spans="5:41">
       <c r="E114" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="AO114" t="s">
         <v>498</v>
@@ -9655,7 +9667,7 @@
     </row>
     <row r="115" spans="5:41">
       <c r="E115" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="AO115" t="s">
         <v>499</v>
@@ -13220,7 +13232,7 @@
         <v>5</v>
       </c>
       <c r="DG2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="DH2" t="s">
         <v>141</v>
@@ -16183,7 +16195,7 @@
         <v>6</v>
       </c>
       <c r="AS3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
@@ -16306,10 +16318,10 @@
         <v>6</v>
       </c>
       <c r="CH3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="CI3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -16336,7 +16348,7 @@
         <v>6</v>
       </c>
       <c r="CR3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="CS3" t="s">
         <v>6</v>
@@ -16351,10 +16363,10 @@
         <v>6</v>
       </c>
       <c r="CW3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="CX3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="CY3" t="s">
         <v>6</v>
@@ -16462,7 +16474,7 @@
         <v>5</v>
       </c>
       <c r="EH3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="EI3" t="s">
         <v>4</v>
@@ -16627,7 +16639,7 @@
         <v>4</v>
       </c>
       <c r="GK3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="GL3" t="s">
         <v>6</v>
@@ -16684,7 +16696,7 @@
         <v>6</v>
       </c>
       <c r="HD3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="HE3" t="s">
         <v>6</v>
@@ -16897,10 +16909,10 @@
         <v>6</v>
       </c>
       <c r="JW3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="JX3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="JY3" t="s">
         <v>4</v>
@@ -17107,7 +17119,7 @@
         <v>6</v>
       </c>
       <c r="MO3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="MP3" t="s">
         <v>4</v>
@@ -17146,7 +17158,7 @@
         <v>6</v>
       </c>
       <c r="NB3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="NC3" t="s">
         <v>6</v>
@@ -17197,10 +17209,10 @@
         <v>4</v>
       </c>
       <c r="NS3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="NT3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="NU3" t="s">
         <v>4</v>
@@ -17290,7 +17302,7 @@
         <v>4</v>
       </c>
       <c r="OX3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="OY3" t="s">
         <v>6</v>
@@ -17461,7 +17473,7 @@
         <v>6</v>
       </c>
       <c r="RC3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="RD3" t="s">
         <v>4</v>
@@ -17476,7 +17488,7 @@
         <v>4</v>
       </c>
       <c r="RH3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="RI3" t="s">
         <v>6</v>
@@ -17545,7 +17557,7 @@
         <v>4</v>
       </c>
       <c r="SE3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="SF3" t="s">
         <v>4</v>
@@ -17572,13 +17584,13 @@
         <v>4</v>
       </c>
       <c r="SN3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="SO3" t="s">
         <v>4</v>
       </c>
       <c r="SP3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="SQ3" t="s">
         <v>6</v>
@@ -17740,7 +17752,7 @@
         <v>4</v>
       </c>
       <c r="UR3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="US3" t="s">
         <v>6</v>
@@ -18193,7 +18205,7 @@
         <v>3</v>
       </c>
       <c r="AAM3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AAN3" t="s">
         <v>4</v>
@@ -18214,10 +18226,10 @@
         <v>6</v>
       </c>
       <c r="AAT3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AAU3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AAV3" t="s">
         <v>4</v>
@@ -18262,7 +18274,7 @@
         <v>6</v>
       </c>
       <c r="ABJ3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="ABK3" t="s">
         <v>6</v>
@@ -18304,7 +18316,7 @@
         <v>3</v>
       </c>
       <c r="ABX3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="ABY3" t="s">
         <v>3</v>
@@ -18454,7 +18466,7 @@
         <v>4</v>
       </c>
       <c r="ADV3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="ADW3" t="s">
         <v>6</v>
@@ -18475,7 +18487,7 @@
         <v>6</v>
       </c>
       <c r="AEC3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AED3" t="s">
         <v>6</v>
@@ -18538,7 +18550,7 @@
         <v>6</v>
       </c>
       <c r="AEX3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AEY3" t="s">
         <v>3</v>
@@ -18550,10 +18562,10 @@
         <v>4</v>
       </c>
       <c r="AFB3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AFC3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AFD3" t="s">
         <v>6</v>
@@ -18661,7 +18673,7 @@
         <v>4</v>
       </c>
       <c r="AGM3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AGN3" t="s">
         <v>6</v>
@@ -18673,7 +18685,7 @@
         <v>6</v>
       </c>
       <c r="AGQ3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AGR3" t="s">
         <v>6</v>
@@ -18736,7 +18748,7 @@
         <v>6</v>
       </c>
       <c r="AHL3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AHM3" t="s">
         <v>6</v>
@@ -18886,7 +18898,7 @@
         <v>6</v>
       </c>
       <c r="AJJ3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AJK3" t="s">
         <v>5</v>
@@ -18943,7 +18955,7 @@
         <v>6</v>
       </c>
       <c r="AKC3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AKD3" t="s">
         <v>5</v>
@@ -18997,7 +19009,7 @@
         <v>6</v>
       </c>
       <c r="AKU3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AKV3" t="s">
         <v>6</v>
@@ -19027,7 +19039,7 @@
         <v>142</v>
       </c>
       <c r="ALE3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="ALF3" t="s">
         <v>4</v>
@@ -22631,7 +22643,7 @@
         <v>5</v>
       </c>
       <c r="CI5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="CJ5" t="s">
         <v>8</v>
@@ -22673,7 +22685,7 @@
         <v>8</v>
       </c>
       <c r="CW5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="CX5" t="s">
         <v>3</v>
@@ -23894,7 +23906,7 @@
         <v>6</v>
       </c>
       <c r="SN5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="SO5" t="s">
         <v>6</v>
@@ -24872,7 +24884,7 @@
         <v>6</v>
       </c>
       <c r="AFB5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="AFC5" t="s">
         <v>3</v>
@@ -24983,7 +24995,7 @@
         <v>6</v>
       </c>
       <c r="AGM5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="AGN5" t="s">
         <v>8</v>
@@ -24995,7 +25007,7 @@
         <v>8</v>
       </c>
       <c r="AGQ5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="AGR5" t="s">
         <v>8</v>

--- a/NformTester/NformTester/keywordscripts/TST2768_TwoCheckboxesInTrendDataSelection.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2768_TwoCheckboxesInTrendDataSelection.xlsx
@@ -3658,10 +3658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;The goal of this test is to verify interactions between two columns in ‘Trend Data Selection’.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3796,18 +3792,22 @@
     <t>Expand</t>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_1$</t>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_1_NAME$</t>
+    <t>$SNMP_device_1$</t>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1_NAME$</t>
   </si>
 </sst>
 </file>
@@ -4764,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4950,13 +4950,13 @@
         <v>771</v>
       </c>
       <c r="B6" s="10">
-        <v>41123</v>
+        <v>41452</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5013,11 +5013,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>807</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -5054,16 +5052,14 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>774</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5078,8 +5074,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>774</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -5105,10 +5105,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5139,7 +5137,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5152,7 +5150,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>2</v>
@@ -5168,7 +5166,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5181,7 +5179,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>2</v>
@@ -5197,14 +5195,14 @@
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -5220,7 +5218,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5253,7 +5251,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5263,10 +5261,10 @@
         <v>805</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F16" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="11"/>
@@ -5279,15 +5277,15 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>781</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -5304,7 +5302,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5313,10 +5311,10 @@
         <v>805</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F18" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="11"/>
@@ -5329,17 +5327,15 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="15">
-      <c r="A19" s="3" t="s">
-        <v>783</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
@@ -5355,9 +5351,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>783</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>774</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5368,7 +5366,7 @@
         <v>806</v>
       </c>
       <c r="F20" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -5382,14 +5380,14 @@
     </row>
     <row r="21" spans="1:15" ht="15">
       <c r="A21" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -5404,6 +5402,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>806</v>
       </c>
       <c r="F22" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -5431,7 +5433,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="5"/>
@@ -5456,7 +5458,7 @@
         <v>806</v>
       </c>
       <c r="F24" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -5851,7 +5853,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G37:G39 G2:G35">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F39 F19 F21 F23 F2:F15 F17">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D34 D27:D29 D22 D18 D3:D4 D7:D8 D16 D20 D24">
@@ -6532,7 +6534,7 @@
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L4" t="s">
         <v>99</v>
@@ -7414,7 +7416,7 @@
     </row>
     <row r="10" spans="1:83">
       <c r="A10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -9397,7 +9399,7 @@
         <v>754</v>
       </c>
       <c r="E82" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AO82" t="s">
         <v>330</v>
@@ -9405,10 +9407,10 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
+        <v>820</v>
+      </c>
+      <c r="E83" t="s">
         <v>821</v>
-      </c>
-      <c r="E83" t="s">
-        <v>822</v>
       </c>
       <c r="AO83" t="s">
         <v>358</v>
@@ -9416,10 +9418,10 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AO84" t="s">
         <v>357</v>
@@ -9483,7 +9485,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="E92" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AO92" t="s">
         <v>477</v>
@@ -9491,7 +9493,7 @@
     </row>
     <row r="93" spans="1:41">
       <c r="E93" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AO93" t="s">
         <v>478</v>
@@ -9499,7 +9501,7 @@
     </row>
     <row r="94" spans="1:41">
       <c r="E94" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AO94" t="s">
         <v>479</v>
@@ -9507,7 +9509,7 @@
     </row>
     <row r="95" spans="1:41">
       <c r="E95" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AO95" t="s">
         <v>480</v>
@@ -9515,7 +9517,7 @@
     </row>
     <row r="96" spans="1:41">
       <c r="E96" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AO96" t="s">
         <v>481</v>
@@ -9523,7 +9525,7 @@
     </row>
     <row r="97" spans="5:41">
       <c r="E97" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AO97" t="s">
         <v>482</v>
@@ -9531,7 +9533,7 @@
     </row>
     <row r="98" spans="5:41">
       <c r="E98" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AO98" t="s">
         <v>483</v>
@@ -9539,7 +9541,7 @@
     </row>
     <row r="99" spans="5:41">
       <c r="E99" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AO99" t="s">
         <v>484</v>
@@ -9547,7 +9549,7 @@
     </row>
     <row r="100" spans="5:41">
       <c r="E100" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AO100" t="s">
         <v>485</v>
@@ -9555,7 +9557,7 @@
     </row>
     <row r="101" spans="5:41">
       <c r="E101" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AO101" t="s">
         <v>486</v>
@@ -9563,7 +9565,7 @@
     </row>
     <row r="102" spans="5:41">
       <c r="E102" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AO102" t="s">
         <v>380</v>
@@ -9571,7 +9573,7 @@
     </row>
     <row r="103" spans="5:41">
       <c r="E103" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AO103" t="s">
         <v>487</v>
@@ -9579,7 +9581,7 @@
     </row>
     <row r="104" spans="5:41">
       <c r="E104" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AO104" t="s">
         <v>488</v>
@@ -9587,7 +9589,7 @@
     </row>
     <row r="105" spans="5:41">
       <c r="E105" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AO105" t="s">
         <v>489</v>
@@ -9595,7 +9597,7 @@
     </row>
     <row r="106" spans="5:41">
       <c r="E106" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AO106" t="s">
         <v>490</v>
@@ -9603,7 +9605,7 @@
     </row>
     <row r="107" spans="5:41">
       <c r="E107" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AO107" t="s">
         <v>491</v>
@@ -9611,7 +9613,7 @@
     </row>
     <row r="108" spans="5:41">
       <c r="E108" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AO108" t="s">
         <v>492</v>
@@ -9619,7 +9621,7 @@
     </row>
     <row r="109" spans="5:41">
       <c r="E109" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AO109" t="s">
         <v>493</v>
@@ -9627,7 +9629,7 @@
     </row>
     <row r="110" spans="5:41">
       <c r="E110" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AO110" t="s">
         <v>494</v>
@@ -9635,7 +9637,7 @@
     </row>
     <row r="111" spans="5:41">
       <c r="E111" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AO111" t="s">
         <v>495</v>
@@ -9643,7 +9645,7 @@
     </row>
     <row r="112" spans="5:41">
       <c r="E112" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AO112" t="s">
         <v>496</v>
@@ -9651,7 +9653,7 @@
     </row>
     <row r="113" spans="5:41">
       <c r="E113" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AO113" t="s">
         <v>497</v>
@@ -9659,7 +9661,7 @@
     </row>
     <row r="114" spans="5:41">
       <c r="E114" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AO114" t="s">
         <v>498</v>
@@ -9667,7 +9669,7 @@
     </row>
     <row r="115" spans="5:41">
       <c r="E115" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AO115" t="s">
         <v>499</v>
@@ -13232,7 +13234,7 @@
         <v>5</v>
       </c>
       <c r="DG2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="DH2" t="s">
         <v>141</v>
@@ -16195,7 +16197,7 @@
         <v>6</v>
       </c>
       <c r="AS3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AT3" t="s">
         <v>4</v>
@@ -16318,10 +16320,10 @@
         <v>6</v>
       </c>
       <c r="CH3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="CI3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="CJ3" t="s">
         <v>6</v>
@@ -16348,7 +16350,7 @@
         <v>6</v>
       </c>
       <c r="CR3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="CS3" t="s">
         <v>6</v>
@@ -16363,10 +16365,10 @@
         <v>6</v>
       </c>
       <c r="CW3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="CX3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="CY3" t="s">
         <v>6</v>
@@ -16474,7 +16476,7 @@
         <v>5</v>
       </c>
       <c r="EH3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="EI3" t="s">
         <v>4</v>
@@ -16639,7 +16641,7 @@
         <v>4</v>
       </c>
       <c r="GK3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="GL3" t="s">
         <v>6</v>
@@ -16696,7 +16698,7 @@
         <v>6</v>
       </c>
       <c r="HD3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="HE3" t="s">
         <v>6</v>
@@ -16909,10 +16911,10 @@
         <v>6</v>
       </c>
       <c r="JW3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="JX3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="JY3" t="s">
         <v>4</v>
@@ -17119,7 +17121,7 @@
         <v>6</v>
       </c>
       <c r="MO3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="MP3" t="s">
         <v>4</v>
@@ -17158,7 +17160,7 @@
         <v>6</v>
       </c>
       <c r="NB3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="NC3" t="s">
         <v>6</v>
@@ -17209,10 +17211,10 @@
         <v>4</v>
       </c>
       <c r="NS3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="NT3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="NU3" t="s">
         <v>4</v>
@@ -17302,7 +17304,7 @@
         <v>4</v>
       </c>
       <c r="OX3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="OY3" t="s">
         <v>6</v>
@@ -17473,7 +17475,7 @@
         <v>6</v>
       </c>
       <c r="RC3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="RD3" t="s">
         <v>4</v>
@@ -17488,7 +17490,7 @@
         <v>4</v>
       </c>
       <c r="RH3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="RI3" t="s">
         <v>6</v>
@@ -17557,7 +17559,7 @@
         <v>4</v>
       </c>
       <c r="SE3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="SF3" t="s">
         <v>4</v>
@@ -17584,13 +17586,13 @@
         <v>4</v>
       </c>
       <c r="SN3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="SO3" t="s">
         <v>4</v>
       </c>
       <c r="SP3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="SQ3" t="s">
         <v>6</v>
@@ -17752,7 +17754,7 @@
         <v>4</v>
       </c>
       <c r="UR3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="US3" t="s">
         <v>6</v>
@@ -18205,7 +18207,7 @@
         <v>3</v>
       </c>
       <c r="AAM3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AAN3" t="s">
         <v>4</v>
@@ -18226,10 +18228,10 @@
         <v>6</v>
       </c>
       <c r="AAT3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AAU3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AAV3" t="s">
         <v>4</v>
@@ -18274,7 +18276,7 @@
         <v>6</v>
       </c>
       <c r="ABJ3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="ABK3" t="s">
         <v>6</v>
@@ -18316,7 +18318,7 @@
         <v>3</v>
       </c>
       <c r="ABX3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="ABY3" t="s">
         <v>3</v>
@@ -18466,7 +18468,7 @@
         <v>4</v>
       </c>
       <c r="ADV3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="ADW3" t="s">
         <v>6</v>
@@ -18487,7 +18489,7 @@
         <v>6</v>
       </c>
       <c r="AEC3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AED3" t="s">
         <v>6</v>
@@ -18550,7 +18552,7 @@
         <v>6</v>
       </c>
       <c r="AEX3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AEY3" t="s">
         <v>3</v>
@@ -18562,10 +18564,10 @@
         <v>4</v>
       </c>
       <c r="AFB3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AFC3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AFD3" t="s">
         <v>6</v>
@@ -18673,7 +18675,7 @@
         <v>4</v>
       </c>
       <c r="AGM3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AGN3" t="s">
         <v>6</v>
@@ -18685,7 +18687,7 @@
         <v>6</v>
       </c>
       <c r="AGQ3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AGR3" t="s">
         <v>6</v>
@@ -18748,7 +18750,7 @@
         <v>6</v>
       </c>
       <c r="AHL3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AHM3" t="s">
         <v>6</v>
@@ -18898,7 +18900,7 @@
         <v>6</v>
       </c>
       <c r="AJJ3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AJK3" t="s">
         <v>5</v>
@@ -18955,7 +18957,7 @@
         <v>6</v>
       </c>
       <c r="AKC3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AKD3" t="s">
         <v>5</v>
@@ -19009,7 +19011,7 @@
         <v>6</v>
       </c>
       <c r="AKU3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AKV3" t="s">
         <v>6</v>
@@ -19039,7 +19041,7 @@
         <v>142</v>
       </c>
       <c r="ALE3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="ALF3" t="s">
         <v>4</v>
@@ -22643,7 +22645,7 @@
         <v>5</v>
       </c>
       <c r="CI5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="CJ5" t="s">
         <v>8</v>
@@ -22685,7 +22687,7 @@
         <v>8</v>
       </c>
       <c r="CW5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="CX5" t="s">
         <v>3</v>
@@ -23906,7 +23908,7 @@
         <v>6</v>
       </c>
       <c r="SN5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="SO5" t="s">
         <v>6</v>
@@ -24884,7 +24886,7 @@
         <v>6</v>
       </c>
       <c r="AFB5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AFC5" t="s">
         <v>3</v>
@@ -24995,7 +24997,7 @@
         <v>6</v>
       </c>
       <c r="AGM5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AGN5" t="s">
         <v>8</v>
@@ -25007,7 +25009,7 @@
         <v>8</v>
       </c>
       <c r="AGQ5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AGR5" t="s">
         <v>8</v>
